--- a/meta-analysis/data/USAID perception info treatment outcomes.xlsx
+++ b/meta-analysis/data/USAID perception info treatment outcomes.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dan.killian\Documents\Methods Corner\meta-analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7113B4B6-CE09-4D4D-AAB0-A3561D6BD05A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C757B3C9-920E-42EB-AE5E-3A56814F0F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41745" yWindow="0" windowWidth="15855" windowHeight="15375" xr2:uid="{61B4A314-D036-4651-8F46-7AAC69E3E9F6}"/>
+    <workbookView xWindow="7188" yWindow="0" windowWidth="15852" windowHeight="13800" activeTab="3" xr2:uid="{61B4A314-D036-4651-8F46-7AAC69E3E9F6}"/>
   </bookViews>
   <sheets>
     <sheet name="metabin" sheetId="1" r:id="rId1"/>
     <sheet name="results tables" sheetId="2" r:id="rId2"/>
     <sheet name="lpm outcomes" sheetId="3" r:id="rId3"/>
+    <sheet name="logistic outcomes" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
   <si>
     <t>Study</t>
   </si>
@@ -94,6 +95,12 @@
   </si>
   <si>
     <t>WB-Gaza</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Vi</t>
   </si>
 </sst>
 </file>
@@ -469,8 +476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2204B178-C8C0-4A2C-8C11-6C92DDE7F06C}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -556,7 +563,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="A1:G12"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -755,7 +762,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -822,4 +829,63 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49C22A18-B517-45BB-A593-ACE916D59D3B}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="D2">
+        <v>6733</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2707</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4">
+        <v>2555</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>